--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="武器表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具：10001-19999
+装备：20001-29999
+武器：30001-39999
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>武器Id</t>
   </si>
@@ -46,6 +79,9 @@
     <t>武器类型</t>
   </si>
   <si>
+    <t>行动点数</t>
+  </si>
+  <si>
     <t>武器描述</t>
   </si>
   <si>
@@ -76,6 +112,9 @@
     <t>weapomType</t>
   </si>
   <si>
+    <t>actionPoint</t>
+  </si>
+  <si>
     <t>weapomDesc</t>
   </si>
   <si>
@@ -88,7 +127,7 @@
     <t>weapomDurable</t>
   </si>
   <si>
-    <t>weapomAttribute</t>
+    <t>weapomAbility</t>
   </si>
   <si>
     <t>int</t>
@@ -121,7 +160,7 @@
     <t>破旧的匕首</t>
   </si>
   <si>
-    <t>看上去已经不在锋利的匕首</t>
+    <t>看上去已经不锋利的匕首</t>
   </si>
   <si>
     <t>5，8</t>
@@ -137,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +327,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1062,7 +1112,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1072,11 +1122,12 @@
     <col min="3" max="3" width="20.675" customWidth="1"/>
     <col min="4" max="4" width="15.2833333333333" customWidth="1"/>
     <col min="5" max="5" width="17.2083333333333" customWidth="1"/>
-    <col min="6" max="6" width="28.4583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.55" customWidth="1"/>
-    <col min="9" max="9" width="15.3833333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="28.4583333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.55" customWidth="1"/>
+    <col min="10" max="10" width="15.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -1110,83 +1161,89 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>10001</v>
+        <v>30001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1194,22 +1251,28 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
         <v>80</v>
       </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>10002</v>
+        <v>30002</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1217,22 +1280,28 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
         <v>80</v>
       </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>10003</v>
+        <v>30003</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1240,53 +1309,26 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
         <v>80</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -97,7 +97,7 @@
     <t>特殊词条</t>
   </si>
   <si>
-    <t>weapomId</t>
+    <t>id</t>
   </si>
   <si>
     <t>weapomName</t>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -1,37 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5F5FD-E12A-4715-BBFD-A975AA78FC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Martian:</t>
         </r>
@@ -39,6 +47,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 道具：10001-19999
@@ -53,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>武器Id</t>
   </si>
@@ -145,13 +154,14 @@
     <t>难以挥动的重锤</t>
   </si>
   <si>
-    <t>破旧的匕首</t>
-  </si>
-  <si>
-    <t>看上去已经不锋利的匕首</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -159,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,</t>
@@ -173,10 +184,22 @@
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破旧的匕首</t>
+  </si>
+  <si>
+    <t>看上去已经不锋利的匕首</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -184,6 +207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,</t>
@@ -198,14 +222,73 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的剑</t>
+  </si>
+  <si>
+    <t>普通的铁剑</t>
+  </si>
+  <si>
+    <t>13,16</t>
+  </si>
+  <si>
+    <t>普通的重锤</t>
+  </si>
+  <si>
+    <t>20,23</t>
+  </si>
+  <si>
+    <t>普通的匕首</t>
+  </si>
+  <si>
+    <t>9,12</t>
+  </si>
+  <si>
+    <t>稀有的剑</t>
+  </si>
+  <si>
+    <t>19,22</t>
+  </si>
+  <si>
+    <t>稀有的重锤</t>
+  </si>
+  <si>
+    <t>28,31</t>
+  </si>
+  <si>
+    <t>稀有的匕首</t>
+  </si>
+  <si>
+    <t>传说的剑</t>
+  </si>
+  <si>
+    <t>23,26</t>
+  </si>
+  <si>
+    <t>传说的重锤</t>
+  </si>
+  <si>
+    <t>32,35</t>
+  </si>
+  <si>
+    <t>传说的匕首</t>
+  </si>
+  <si>
+    <t>17,20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,35 +297,356 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,9 +654,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -261,21 +907,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -525,31 +1215,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.775" customWidth="1"/>
+    <col min="2" max="2" width="21.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="28.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -660,7 +1350,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>30001</v>
       </c>
@@ -689,7 +1379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>30002</v>
       </c>
@@ -709,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>80</v>
@@ -718,12 +1408,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>30003</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -735,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -747,10 +1437,271 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>30004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>30005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>30006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>30007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>30008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>30009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>30010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>30011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>30012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>武器Id</t>
   </si>
@@ -260,19 +260,28 @@
     <t>稀有的匕首</t>
   </si>
   <si>
-    <t>传说的剑</t>
+    <t>罗格的剑</t>
+  </si>
+  <si>
+    <t>传说中罗格使用过的剑</t>
   </si>
   <si>
     <t>23,26</t>
   </si>
   <si>
-    <t>传说的重锤</t>
+    <t>罗格的重锤</t>
+  </si>
+  <si>
+    <t>传说的罗格使用过重锤</t>
   </si>
   <si>
     <t>32,35</t>
   </si>
   <si>
-    <t>传说的匕首</t>
+    <t>罗格的匕首</t>
+  </si>
+  <si>
+    <t>传说的罗格使用过匕首</t>
   </si>
   <si>
     <t>17,20</t>
@@ -1224,7 +1233,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>13</v>
@@ -1489,7 +1498,7 @@
         <v>38</v>
       </c>
       <c r="J8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1518,7 +1527,7 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1547,7 +1556,7 @@
         <v>42</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K10">
         <v>13</v>
@@ -1576,7 +1585,7 @@
         <v>44</v>
       </c>
       <c r="J11">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -1605,7 +1614,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1628,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -1645,7 +1654,7 @@
         <v>30011</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1657,13 +1666,13 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1674,7 +1683,7 @@
         <v>30012</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1686,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J15">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K15">
         <v>1</v>

--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>武器Id</t>
   </si>
@@ -260,7 +260,7 @@
     <t>稀有的匕首</t>
   </si>
   <si>
-    <t>罗格的剑</t>
+    <t>传说的剑</t>
   </si>
   <si>
     <t>传说中罗格使用过的剑</t>
@@ -269,7 +269,7 @@
     <t>23,26</t>
   </si>
   <si>
-    <t>罗格的重锤</t>
+    <t>传说的重锤</t>
   </si>
   <si>
     <t>传说的罗格使用过重锤</t>
@@ -278,13 +278,22 @@
     <t>32,35</t>
   </si>
   <si>
-    <t>罗格的匕首</t>
+    <t>传说的匕首</t>
   </si>
   <si>
     <t>传说的罗格使用过匕首</t>
   </si>
   <si>
     <t>17,20</t>
+  </si>
+  <si>
+    <t>法棍重锤</t>
+  </si>
+  <si>
+    <t>奇怪材质制成的重锤,好像有点香？</t>
+  </si>
+  <si>
+    <t>18,20</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,23 +466,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,55 +803,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,78 +863,87 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,10 +1258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1252,112 +1280,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
@@ -1407,7 +1435,7 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J5">
@@ -1436,7 +1464,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J6">
@@ -1494,7 +1522,7 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J8">
@@ -1523,7 +1551,7 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J9">
@@ -1705,6 +1733,35 @@
       </c>
       <c r="K15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="1">
+        <v>30013</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1">
+        <v>70</v>
+      </c>
+      <c r="K16" s="1">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09EEA2A-C244-49A8-BE93-8565DF6003AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Martian:</t>
@@ -47,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -159,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,6 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,6 +176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,6 +195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,6 +206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,6 +217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,20 +294,15 @@
     <t>奇怪材质制成的重锤,好像有点香？</t>
   </si>
   <si>
-    <t>18,20</t>
+    <t>26，29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,166 +314,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,198 +348,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -685,255 +361,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,65 +378,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1252,34 +639,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.775" customWidth="1"/>
-    <col min="2" max="2" width="21.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="28.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.1083333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="17.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +702,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +738,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +774,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>30001</v>
       </c>
@@ -1416,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>30002</v>
       </c>
@@ -1435,7 +822,7 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
       <c r="J5">
@@ -1445,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>30003</v>
       </c>
@@ -1464,7 +851,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
       <c r="J6">
@@ -1474,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>30004</v>
       </c>
@@ -1503,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>30005</v>
       </c>
@@ -1522,7 +909,7 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="J8">
@@ -1532,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>30006</v>
       </c>
@@ -1551,7 +938,7 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
       <c r="J9">
@@ -1561,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>30007</v>
       </c>
@@ -1590,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>30008</v>
       </c>
@@ -1619,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>30009</v>
       </c>
@@ -1648,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>30010</v>
       </c>
@@ -1677,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>30011</v>
       </c>
@@ -1706,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>30012</v>
       </c>
@@ -1735,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>30013</v>
       </c>
@@ -1743,7 +1130,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1758,16 +1145,16 @@
         <v>57</v>
       </c>
       <c r="J16" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09EEA2A-C244-49A8-BE93-8565DF6003AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20330" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Martian:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>武器Id</t>
   </si>
@@ -147,6 +139,15 @@
   </si>
   <si>
     <t>难以挥动的重锤</t>
+  </si>
+  <si>
+    <t>12,15</t>
+  </si>
+  <si>
+    <t>破旧的匕首</t>
+  </si>
+  <si>
+    <t>看上去已经不锋利的匕首</t>
   </si>
   <si>
     <r>
@@ -154,18 +155,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,48 +175,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <t>破旧的匕首</t>
-  </si>
-  <si>
-    <t>看上去已经不锋利的匕首</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,15 +251,20 @@
     <t>奇怪材质制成的重锤,好像有点香？</t>
   </si>
   <si>
-    <t>26，29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>26,29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,32 +276,159 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,12 +437,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -361,9 +630,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -375,21 +886,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -639,34 +1194,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="16.7545454545455" customWidth="1"/>
+    <col min="2" max="2" width="21.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="20.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="15.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="17.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="15.6272727272727" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="15.3727272727273" customWidth="1"/>
+    <col min="11" max="11" width="17.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,7 +1257,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -738,7 +1293,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -774,13 +1329,16 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>30001</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -803,13 +1361,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>30002</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -832,13 +1393,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>30003</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -861,13 +1425,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>30004</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
@@ -890,13 +1457,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>30005</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -919,13 +1489,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>30006</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -948,13 +1521,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>30007</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -977,13 +1553,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>30008</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="D11">
         <v>3</v>
       </c>
@@ -1006,13 +1585,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>30009</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -1035,13 +1617,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>30010</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
       <c r="D13">
         <v>4</v>
       </c>
@@ -1064,13 +1649,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>30011</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
       <c r="D14">
         <v>4</v>
       </c>
@@ -1093,13 +1681,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>30012</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
       <c r="D15">
         <v>4</v>
       </c>
@@ -1122,13 +1713,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1">
         <v>30013</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
@@ -1152,9 +1746,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Weapon.xlsx
+++ b/Configs/Weapon.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="9860"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -257,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -273,34 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -317,6 +302,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -326,41 +350,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,7 +403,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,43 +456,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,121 +588,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,21 +641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,6 +673,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,148 +746,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,52 +905,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1203,22 +1216,22 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="21.1272727272727" customWidth="1"/>
-    <col min="3" max="3" width="20.6272727272727" customWidth="1"/>
-    <col min="4" max="4" width="15.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="17.2545454545455" customWidth="1"/>
-    <col min="6" max="6" width="15.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="16.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="12.1272727272727" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="15.3727272727273" customWidth="1"/>
-    <col min="11" max="11" width="17.1272727272727" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1351,6 +1364,9 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
       <c r="I4" t="s">
         <v>27</v>
       </c>
@@ -1383,6 +1399,9 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
       <c r="I5" t="s">
         <v>30</v>
       </c>
@@ -1415,6 +1434,9 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
@@ -1447,6 +1469,9 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
@@ -1479,6 +1504,9 @@
       <c r="G8" t="s">
         <v>37</v>
       </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
@@ -1511,6 +1539,9 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
       <c r="I9" t="s">
         <v>40</v>
       </c>
@@ -1543,6 +1574,9 @@
       <c r="G10" t="s">
         <v>41</v>
       </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
       <c r="I10" t="s">
         <v>42</v>
       </c>
@@ -1575,6 +1609,9 @@
       <c r="G11" t="s">
         <v>43</v>
       </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
       <c r="I11" t="s">
         <v>44</v>
       </c>
@@ -1607,6 +1644,9 @@
       <c r="G12" t="s">
         <v>45</v>
       </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
@@ -1639,6 +1679,9 @@
       <c r="G13" t="s">
         <v>47</v>
       </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
       <c r="I13" t="s">
         <v>48</v>
       </c>
@@ -1671,6 +1714,9 @@
       <c r="G14" t="s">
         <v>50</v>
       </c>
+      <c r="H14">
+        <v>120</v>
+      </c>
       <c r="I14" t="s">
         <v>51</v>
       </c>
@@ -1703,6 +1749,9 @@
       <c r="G15" t="s">
         <v>53</v>
       </c>
+      <c r="H15">
+        <v>105</v>
+      </c>
       <c r="I15" t="s">
         <v>54</v>
       </c>
@@ -1734,6 +1783,9 @@
       </c>
       <c r="G16" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="H16" s="1">
+        <v>80</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>57</v>
